--- a/Manual Section/testCases.xlsx
+++ b/Manual Section/testCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVIN\Documents\PROJECTS\Automation\Manual Section\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DAE0F-A1D3-4F30-99BE-F00371EA771E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4EA77A-FF27-46EB-BF6D-E011434D4DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2587652A-2A28-49D4-B074-AD8D59FC9102}"/>
+    <workbookView xWindow="-15" yWindow="120" windowWidth="13020" windowHeight="10770" activeTab="1" xr2:uid="{2587652A-2A28-49D4-B074-AD8D59FC9102}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-001" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>title</t>
   </si>
@@ -45,16 +43,10 @@
     <t>description</t>
   </si>
   <si>
-    <t>Requirements</t>
-  </si>
-  <si>
     <t>Preconditions</t>
   </si>
   <si>
     <t>Steps</t>
-  </si>
-  <si>
-    <t>Attachments</t>
   </si>
   <si>
     <t>id</t>
@@ -93,6 +85,32 @@
   <si>
     <t>* page should be redirected to  products view
 * the list of available products should be displayed</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>User is able to add items to the cart</t>
+  </si>
+  <si>
+    <t>this test verifies that a user is able to add items to the cart and they are displayed on the cart</t>
+  </si>
+  <si>
+    <t>to have some existing products</t>
+  </si>
+  <si>
+    <t>click on the button ADD TO CART on any product</t>
+  </si>
+  <si>
+    <t>* the ADD TO CART button should change text to REMOVE and change its color from red to gray
+* a bubble with the number 1 should be displayed on the cart icon</t>
+  </si>
+  <si>
+    <t>click on the cart icon on the top section</t>
+  </si>
+  <si>
+    <t>* page should be redirected to cart view
+* the product that was added on products view should be displayed</t>
   </si>
 </sst>
 </file>
@@ -116,12 +134,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,12 +160,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86D6BF8-E6C6-4A4B-A17E-DFC91259B80D}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,96 +495,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -569,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A84D4B-DE15-4265-AD94-ED20437212E1}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,79 +601,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11">
-        <v>3</v>
-      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
